--- a/nmadb/501426.xlsx
+++ b/nmadb/501426.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7680"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>Treatments</t>
   </si>
@@ -24,22 +24,10 @@
     <t>Study (name)</t>
   </si>
   <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>Baneficial</t>
-  </si>
-  <si>
-    <t>ln(OR)</t>
   </si>
   <si>
     <t>Burns 1963</t>
@@ -306,12 +294,27 @@
       <t>efficacy for dendritic or geographic HSV epithelial keratitis (proportions healed)</t>
     </r>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>efefct=ln(OR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -403,6 +406,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,7 +496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -527,7 +530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,15 +705,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="8" customWidth="1"/>
@@ -721,39 +723,40 @@
     <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="8" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -770,20 +773,20 @@
       <c r="F2" s="8">
         <v>0.87054498993435547</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="8">
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -806,12 +809,15 @@
         <v>2</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -834,12 +840,12 @@
         <v>3</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
@@ -862,12 +868,12 @@
         <v>4</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -889,12 +895,12 @@
         <v>5</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -916,12 +922,12 @@
         <v>6</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
@@ -942,12 +948,12 @@
         <v>7</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
@@ -968,12 +974,12 @@
         <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>7</v>
@@ -995,12 +1001,12 @@
         <v>9</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8">
         <v>8</v>
@@ -1021,12 +1027,12 @@
         <v>10</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
@@ -1047,12 +1053,12 @@
         <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8">
         <v>9</v>
@@ -1073,12 +1079,12 @@
         <v>12</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
         <v>10</v>
@@ -1099,12 +1105,12 @@
         <v>13</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>11</v>
@@ -1125,12 +1131,12 @@
         <v>14</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8">
         <v>12</v>
@@ -1151,12 +1157,12 @@
         <v>15</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8">
         <v>13</v>
@@ -1177,12 +1183,12 @@
         <v>16</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8">
         <v>14</v>
@@ -1203,12 +1209,12 @@
         <v>17</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8">
         <v>15</v>
@@ -1229,12 +1235,12 @@
         <v>18</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <v>16</v>
@@ -1255,12 +1261,12 @@
         <v>19</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1">
       <c r="A21" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
         <v>17</v>
@@ -1281,12 +1287,12 @@
         <v>20</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
         <v>18</v>
@@ -1307,12 +1313,12 @@
         <v>21</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1">
       <c r="A23" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8">
         <v>19</v>
@@ -1333,12 +1339,12 @@
         <v>22</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1">
       <c r="A24" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="8">
         <v>20</v>
@@ -1359,12 +1365,12 @@
         <v>23</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8">
         <v>21</v>
@@ -1385,12 +1391,12 @@
         <v>24</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1">
       <c r="A26" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <v>22</v>
@@ -1409,9 +1415,9 @@
       </c>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="8" customFormat="1">
       <c r="A27" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <v>23</v>
@@ -1429,9 +1435,9 @@
         <v>1.235280606958429</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="8" customFormat="1">
       <c r="A28" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" s="8">
         <v>23</v>
@@ -1449,9 +1455,9 @@
         <v>0.96697273159194796</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="8" customFormat="1">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="8">
         <v>24</v>
@@ -1469,9 +1475,9 @@
         <v>0.73015328595139495</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="8" customFormat="1">
       <c r="A30" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" s="8">
         <v>25</v>
@@ -1495,9 +1501,9 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="8" customFormat="1">
       <c r="A31" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8">
         <v>26</v>
@@ -1521,9 +1527,9 @@
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="8" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" s="8">
         <v>27</v>
@@ -1547,9 +1553,9 @@
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="8" customFormat="1">
       <c r="A33" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8">
         <v>28</v>
@@ -1573,9 +1579,9 @@
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="8" customFormat="1">
       <c r="A34" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" s="8">
         <v>29</v>
@@ -1599,9 +1605,9 @@
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="8" customFormat="1">
       <c r="A35" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="8">
         <v>30</v>
@@ -1625,9 +1631,9 @@
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="8" customFormat="1">
       <c r="A36" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8">
         <v>31</v>
@@ -1651,9 +1657,9 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="8" customFormat="1">
       <c r="A37" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="8">
         <v>32</v>
@@ -1677,9 +1683,9 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="8" customFormat="1">
       <c r="A38" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" s="8">
         <v>33</v>
@@ -1703,9 +1709,9 @@
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="8" customFormat="1">
       <c r="A39" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B39" s="8">
         <v>34</v>
@@ -1729,9 +1735,9 @@
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="8" customFormat="1">
       <c r="A40" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="8">
         <v>35</v>
@@ -1755,9 +1761,9 @@
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="8" customFormat="1">
       <c r="A41" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" s="8">
         <v>36</v>
@@ -1781,9 +1787,9 @@
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="8" customFormat="1">
       <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" s="8">
         <v>37</v>
@@ -1807,9 +1813,9 @@
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="8" customFormat="1">
       <c r="A43" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8">
         <v>38</v>
@@ -1833,9 +1839,9 @@
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
     </row>
-    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="8" customFormat="1">
       <c r="A44" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8">
         <v>39</v>
@@ -1853,9 +1859,9 @@
         <v>2.4204010481057296</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="8" customFormat="1">
       <c r="A45" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="8">
         <v>40</v>
@@ -1873,9 +1879,9 @@
         <v>0.66099665411646413</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="8" customFormat="1">
       <c r="A46" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" s="8">
         <v>41</v>
@@ -1893,9 +1899,9 @@
         <v>1.1680077929039234</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="8" customFormat="1">
       <c r="A47" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" s="8">
         <v>42</v>
@@ -1913,9 +1919,9 @@
         <v>0.74507069066109533</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="8" customFormat="1">
       <c r="A48" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8">
         <v>42</v>
@@ -1933,9 +1939,9 @@
         <v>0.7077908016252662</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="8" customFormat="1">
       <c r="A49" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8">
         <v>42</v>
@@ -1953,9 +1959,9 @@
         <v>0.47650709451105761</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="8" customFormat="1">
       <c r="A50" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="8">
         <v>43</v>
@@ -1973,9 +1979,9 @@
         <v>0.83898576901657618</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="8" customFormat="1">
       <c r="A51" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" s="8">
         <v>44</v>
@@ -1993,9 +1999,9 @@
         <v>0.6606188607806176</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="8" customFormat="1">
       <c r="A52" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B52" s="8">
         <v>45</v>
@@ -2013,9 +2019,9 @@
         <v>1.25468304817557</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="8" customFormat="1">
       <c r="A53" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B53" s="8">
         <v>46</v>
@@ -2033,9 +2039,9 @@
         <v>0.66289948169911272</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="8" customFormat="1">
       <c r="A54" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B54" s="8">
         <v>47</v>
@@ -2053,9 +2059,9 @@
         <v>0.62978347182798855</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="8" customFormat="1">
       <c r="A55" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B55" s="8">
         <v>48</v>
@@ -2073,9 +2079,9 @@
         <v>0.41745340772190592</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="8" customFormat="1">
       <c r="A56" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B56" s="8">
         <v>49</v>
@@ -2097,9 +2103,9 @@
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="8" customFormat="1">
       <c r="A57" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B57" s="8">
         <v>50</v>
@@ -2121,9 +2127,9 @@
       <c r="K57" s="21"/>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="8" customFormat="1">
       <c r="A58" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" s="8">
         <v>50</v>
@@ -2145,9 +2151,9 @@
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="8" customFormat="1">
       <c r="A59" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" s="8">
         <v>51</v>
@@ -2169,9 +2175,9 @@
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="8" customFormat="1">
       <c r="A60" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" s="8">
         <v>52</v>
@@ -2193,9 +2199,9 @@
       <c r="K60" s="16"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="7" customFormat="1">
       <c r="A61" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" s="8">
         <v>53</v>
@@ -2218,9 +2224,9 @@
       <c r="K61" s="22"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="8" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B62" s="8">
         <v>54</v>
@@ -2242,9 +2248,9 @@
       <c r="K62" s="23"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="8" customFormat="1">
       <c r="A63" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B63" s="8">
         <v>55</v>
@@ -2266,9 +2272,9 @@
       <c r="K63" s="22"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="8" customFormat="1">
       <c r="A64" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B64" s="8">
         <v>56</v>
@@ -2290,9 +2296,9 @@
       <c r="K64" s="23"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="8" customFormat="1">
       <c r="A65" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" s="8">
         <v>57</v>
@@ -2314,9 +2320,9 @@
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="8" customFormat="1">
       <c r="A66" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B66" s="8">
         <v>58</v>
@@ -2338,9 +2344,9 @@
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="8" customFormat="1">
       <c r="A67" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B67" s="8">
         <v>59</v>
@@ -2362,9 +2368,9 @@
       <c r="K67" s="21"/>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="7" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B68" s="8">
         <v>60</v>
@@ -2387,14 +2393,14 @@
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="8" customFormat="1">
       <c r="A69" s="10"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="7" customFormat="1">
       <c r="A70" s="10"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2406,7 +2412,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="7" customFormat="1">
       <c r="A71" s="10"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2416,7 +2422,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="7" customFormat="1">
       <c r="A72" s="10"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2428,7 +2434,7 @@
       <c r="K72" s="23"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="8" customFormat="1">
       <c r="A73" s="10"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
@@ -2437,7 +2443,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="8" customFormat="1">
       <c r="A74" s="10"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -2446,7 +2452,7 @@
       <c r="K74" s="23"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="8" customFormat="1">
       <c r="A75" s="10"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -2455,7 +2461,7 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="8" customFormat="1">
       <c r="A76" s="10"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -2464,7 +2470,7 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="7" customFormat="1">
       <c r="A77" s="10"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2476,7 +2482,7 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="8" customFormat="1">
       <c r="A78" s="10"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2485,23 +2491,23 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="8" customFormat="1">
       <c r="A79" s="10"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="8" customFormat="1">
       <c r="A80" s="10"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="8" customFormat="1">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="7" customFormat="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2511,7 +2517,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="8" customFormat="1">
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="K83"/>
@@ -2530,24 +2536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
